--- a/colleagues_labs/lab4/lab4.xlsx
+++ b/colleagues_labs/lab4/lab4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8BE5D7-4E9C-4B60-B2A3-F09D9F8BC745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604EBB7E-6675-B84A-85E5-4726198A5F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="5600" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>х</t>
   </si>
@@ -124,9 +126,6 @@
   </si>
   <si>
     <t>Наименование расходов</t>
-  </si>
-  <si>
-    <t>увелич</t>
   </si>
 </sst>
 </file>
@@ -275,8 +274,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -294,7 +293,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -373,10 +372,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>139945.97163333333</c:v>
+                  <c:v>9795743.9598916676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139945.97163333333</c:v>
+                  <c:v>9795743.9598916676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,7 +442,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1304184.1199999999</c:v>
+                  <c:v>41310248.664999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,7 +509,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1482492.8</c:v>
+                  <c:v>85705786.599999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,10 +573,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>139945.97163333333</c:v>
+                  <c:v>9795743.9598916676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1444130.0916333331</c:v>
+                  <c:v>51105992.624891669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,10 +660,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,7 +678,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1185994.24</c:v>
+                  <c:v>21426446.649999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,7 +757,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689482671"/>
@@ -820,7 +819,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1684196335"/>
@@ -872,7 +871,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -909,7 +908,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1518,9 +1517,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1558,7 +1557,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1664,7 +1663,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1840,23 +1839,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="57.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -1868,7 +1867,7 @@
       </c>
       <c r="E1" s="3">
         <f>ROUNDUP((B8-I13)*B5-I6,2)</f>
-        <v>38362.71</v>
+        <v>56797562.949999996</v>
       </c>
       <c r="F1" s="4"/>
       <c r="H1" s="15" t="s">
@@ -1878,12 +1877,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="3">
-        <v>926557.88</v>
+        <v>85705786.510000005</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4"/>
@@ -1896,12 +1895,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="11" t="s">
@@ -1917,10 +1916,10 @@
       </c>
       <c r="I3" s="3">
         <f>B2/B3</f>
-        <v>115819.735</v>
+        <v>8570578.6510000005</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1935,26 +1934,26 @@
       </c>
       <c r="I4" s="3">
         <f>B2*B4/12</f>
-        <v>13126.236633333334</v>
+        <v>1214165.3088916668</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="3">
         <f>ROUNDUP(I6/(B8-I13),0)</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
         <f>E5*B8</f>
-        <v>1185994.24</v>
+        <v>21426446.649999999</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>8</v>
@@ -1964,12 +1963,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3">
-        <v>200000</v>
+        <v>55000</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="4"/>
@@ -1979,43 +1978,40 @@
       </c>
       <c r="I6" s="10">
         <f>SUM(I2:I5)</f>
-        <v>139945.97163333333</v>
+        <v>9795743.9598916676</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3">
         <f>ROUNDUP(B8*0.45,2)</f>
-        <v>33356.090000000004</v>
+        <v>1928380.2</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3">
         <f>ROUNDUP((I6+I13*B5)/B5,2)</f>
-        <v>72206.509999999995</v>
+        <v>2392037.2399999998</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3">
-        <f>ROUNDUP(B2*0.08,2)</f>
-        <v>74124.639999999999</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
+        <f>ROUNDUP(B2*0.05,2)</f>
+        <v>4285289.33</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="13">
         <f>(100%-(E7*100%/B8))</f>
-        <v>2.5877090263102809E-2</v>
+        <v>0.441802628528702</v>
       </c>
       <c r="F8" s="4"/>
       <c r="H8" s="15" t="s">
@@ -2025,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
@@ -2040,10 +2036,10 @@
       </c>
       <c r="I9" s="3">
         <f>B7</f>
-        <v>33356.090000000004</v>
+        <v>1928380.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -2055,7 +2051,7 @@
       </c>
       <c r="E10" s="17">
         <f>ROUNDUP((B6+I6)/(B8-I13),0)</f>
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="F10" s="4"/>
       <c r="H10" s="3" t="s">
@@ -2066,7 +2062,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -2081,16 +2077,16 @@
       </c>
       <c r="I11" s="14">
         <f>B8*0.01</f>
-        <v>741.24639999999999</v>
+        <v>42852.893300000003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D12" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="17">
         <f>ROUNDUP((B3*I6)/(B8-I13),0)</f>
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="5" t="s">
@@ -2098,10 +2094,10 @@
       </c>
       <c r="I12" s="3">
         <f>B8*0.015</f>
-        <v>1111.8696</v>
+        <v>64279.339950000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D13" s="8"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2110,10 +2106,10 @@
       </c>
       <c r="I13" s="10">
         <f>SUM(I9:I12)</f>
-        <v>65209.205999999998</v>
+        <v>2065512.43325</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="4"/>
       <c r="D14" s="10" t="s">
@@ -2121,15 +2117,15 @@
       </c>
       <c r="E14" s="3">
         <f>E12/E5</f>
-        <v>7.875</v>
+        <v>9</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>0</v>
       </c>
@@ -2138,7 +2134,7 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>0</v>
       </c>
@@ -2147,40 +2143,40 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>20</v>
       </c>
       <c r="C32" s="3">
         <f>I6*20</f>
-        <v>2798919.4326666668</v>
+        <v>195914879.19783336</v>
       </c>
       <c r="D32" s="3">
         <f>I13*20</f>
-        <v>1304184.1199999999</v>
+        <v>41310248.664999999</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="3">
         <f>B8*B32</f>
-        <v>1482492.8</v>
+        <v>85705786.599999994</v>
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="3">
         <f>I6</f>
-        <v>139945.97163333333</v>
+        <v>9795743.9598916676</v>
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="3">
         <f>I6+D32</f>
-        <v>1444130.0916333331</v>
+        <v>51105992.624891669</v>
       </c>
       <c r="D35" s="4"/>
     </row>
@@ -2197,7 +2193,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2209,7 +2205,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
